--- a/LR3/table_1_68.xlsx
+++ b/LR3/table_1_68.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C7D8C-6984-41AC-B0D5-A7AFCBAB4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB0960-27D8-418F-B2EA-1943FA6E78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D35" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>74.800000000000011</v>
       </c>
       <c r="E5" s="5">
@@ -2179,7 +2179,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="10"/>
+        <f>D6/2</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E38" s="5">

--- a/LR3/table_1_68.xlsx
+++ b/LR3/table_1_68.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB0960-27D8-418F-B2EA-1943FA6E78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DAECD7-F7A0-4657-ABC2-7CF022AD300A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2220" windowWidth="16725" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,37 +563,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <f>C3-0.5</f>
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="5"/>
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="5"/>
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="5"/>
@@ -867,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="5"/>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="5"/>
@@ -957,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="5"/>
@@ -1002,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="5"/>
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="5"/>
@@ -1092,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="5"/>
@@ -1137,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="5"/>
@@ -1182,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="5"/>
@@ -1227,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="5"/>
@@ -1272,7 +1272,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="5"/>
@@ -1317,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="5"/>
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="5"/>
@@ -1407,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="5"/>
@@ -1452,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="5"/>
@@ -1497,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="5"/>
@@ -1542,7 +1542,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="5"/>
@@ -1587,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="5"/>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="5"/>
@@ -1677,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="5"/>
@@ -1722,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="5"/>
@@ -1767,7 +1767,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="5"/>
@@ -1812,7 +1812,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="5"/>
@@ -1857,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="5"/>
@@ -1902,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="5"/>
@@ -1947,7 +1947,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="5"/>
@@ -1992,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="5"/>
@@ -2037,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="5"/>
@@ -2082,14 +2082,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f t="shared" ref="D36:D37" si="10">D4/2</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E36" s="5">
@@ -2127,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="5"/>
@@ -2172,7 +2172,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="5"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_68.xlsx
+++ b/LR3/table_1_68.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DAECD7-F7A0-4657-ABC2-7CF022AD300A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2866E-045A-46D2-BD50-703713A4BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2220" windowWidth="16725" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2089,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D37" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E36" s="5">
@@ -2134,7 +2134,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E37" s="5">
@@ -2179,7 +2179,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f>D6/2</f>
+        <f>D3/2</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E38" s="5">
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="5">
-        <f>MAX(E3:E38)</f>
+        <f>MAX(K3:K38)</f>
         <v>5236.0000000000009</v>
       </c>
     </row>
